--- a/biology/Mycologie/Ramaria_rugosa/Ramaria_rugosa.xlsx
+++ b/biology/Mycologie/Ramaria_rugosa/Ramaria_rugosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavaire rugueuse
-Clavulina rugosa, la Clavaire rugueuse[1],[2], est une espèce de champignons basidiomycètes de la famille des Hydnaceae.
+Clavulina rugosa, la Clavaire rugueuse est une espèce de champignons basidiomycètes de la famille des Hydnaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (3 février 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (3 février 2023) :
 Clavulina rugosa f. fuliginea (Fr.) Franchi &amp; M.Marchetti, 2018
 Clavulina rugosa var. alcyonaria Corner, 1950
 Clavulina rugosa var. canaliculata Corner, 1950
@@ -549,12 +563,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Clavulina rugosa (Bull.) J.Schröt., 1888[3].
-L'espèce a été initialement classée dans le genre Clavaria sous le basionyme Clavaria rugosa Bull., 1790[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Clavaire rugueuse[1].
-Clavulina rugosa a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Clavulina rugosa (Bull.) J.Schröt., 1888.
+L'espèce a été initialement classée dans le genre Clavaria sous le basionyme Clavaria rugosa Bull., 1790.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Clavaire rugueuse.
+Clavulina rugosa a pour synonymes :
 Clavaria grossa Pers., 1797
 Clavaria herveyi Peck, 1893
 Clavaria rugosa Bull., 1790
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schröter, J., Kryptogamen-Flora von Schlesien, vol. 3.1, 1888, p. 385-512</t>
         </is>
